--- a/wl.xlsx
+++ b/wl.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>caminhao tombou</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>pk</t>
+  </si>
+  <si>
+    <t>mamadou e relax</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,6 +405,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
